--- a/경로 테스트.xlsx
+++ b/경로 테스트.xlsx
@@ -172,355 +172,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="225"/>
                 <c:pt idx="0">
-                  <c:v>8.62044E-2</c:v>
+                  <c:v>9.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17240900000000001</c:v>
+                  <c:v>9.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25861299999999998</c:v>
+                  <c:v>9.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34481699999999998</c:v>
+                  <c:v>9.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43102200000000002</c:v>
+                  <c:v>9.5500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51722599999999996</c:v>
+                  <c:v>9.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60343100000000005</c:v>
+                  <c:v>9.3699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.689635</c:v>
+                  <c:v>9.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77583899999999995</c:v>
+                  <c:v>9.19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86204400000000003</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94824799999999998</c:v>
+                  <c:v>9.01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0344500000000001</c:v>
+                  <c:v>8.92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.12066</c:v>
+                  <c:v>8.83</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.20686</c:v>
+                  <c:v>8.74</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2930699999999999</c:v>
+                  <c:v>8.65</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.37927</c:v>
+                  <c:v>8.56</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4654700000000001</c:v>
+                  <c:v>8.4700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5516799999999999</c:v>
+                  <c:v>8.3800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.63788</c:v>
+                  <c:v>8.2899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7240899999999999</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.81029</c:v>
+                  <c:v>8.11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.8965000000000001</c:v>
+                  <c:v>8.02</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.9826999999999999</c:v>
+                  <c:v>7.93</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.0689000000000002</c:v>
+                  <c:v>7.84</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.1551100000000001</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2413099999999999</c:v>
+                  <c:v>7.66</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.3275199999999998</c:v>
+                  <c:v>7.57</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4137200000000001</c:v>
+                  <c:v>7.48</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.49993</c:v>
+                  <c:v>7.39</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.5861299999999998</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.6723400000000002</c:v>
+                  <c:v>7.21</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.75854</c:v>
+                  <c:v>7.12</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.8447399999999998</c:v>
+                  <c:v>7.03</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.9309500000000002</c:v>
+                  <c:v>6.94</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.01715</c:v>
+                  <c:v>6.85</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.1033599999999999</c:v>
+                  <c:v>6.76</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.1895600000000002</c:v>
+                  <c:v>6.67</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.2757700000000001</c:v>
+                  <c:v>6.58</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.3619699999999999</c:v>
+                  <c:v>6.49</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.4481700000000002</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.5343800000000001</c:v>
+                  <c:v>6.31</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6205799999999999</c:v>
+                  <c:v>6.22</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.7067899999999998</c:v>
+                  <c:v>6.13</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.7929900000000001</c:v>
+                  <c:v>6.04</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.8792</c:v>
+                  <c:v>5.95</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.9653999999999998</c:v>
+                  <c:v>5.86</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.0516100000000002</c:v>
+                  <c:v>5.77</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.13781</c:v>
+                  <c:v>5.68</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.2240099999999998</c:v>
+                  <c:v>5.59</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.3102200000000002</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.39642</c:v>
+                  <c:v>5.41</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.4826300000000003</c:v>
+                  <c:v>5.32</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.5688300000000002</c:v>
+                  <c:v>5.23</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.6550399999999996</c:v>
+                  <c:v>5.14</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.7412400000000003</c:v>
+                  <c:v>5.05</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.8274400000000002</c:v>
+                  <c:v>4.96</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.9136499999999996</c:v>
+                  <c:v>4.87</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.9998500000000003</c:v>
+                  <c:v>4.78</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.0860599999999998</c:v>
+                  <c:v>4.6900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.1722599999999996</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.25847</c:v>
+                  <c:v>4.51</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.3446699999999998</c:v>
+                  <c:v>4.42</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.4308800000000002</c:v>
+                  <c:v>4.33</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.51708</c:v>
+                  <c:v>4.24</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.6032799999999998</c:v>
+                  <c:v>4.1500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.6894900000000002</c:v>
+                  <c:v>4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.77569</c:v>
+                  <c:v>3.97</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.8619000000000003</c:v>
+                  <c:v>3.88</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.9481000000000002</c:v>
+                  <c:v>3.79</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.0343099999999996</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.1205100000000003</c:v>
+                  <c:v>3.61</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.2067100000000002</c:v>
+                  <c:v>3.52</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.2929199999999996</c:v>
+                  <c:v>3.43</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.3791200000000003</c:v>
+                  <c:v>3.34</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.4653299999999998</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.5515299999999996</c:v>
+                  <c:v>3.16</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.63774</c:v>
+                  <c:v>3.07</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.7239399999999998</c:v>
+                  <c:v>2.98</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.8101399999999996</c:v>
+                  <c:v>2.89</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.89635</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.9825499999999998</c:v>
+                  <c:v>2.71</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7.0687600000000002</c:v>
+                  <c:v>2.62</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.15496</c:v>
+                  <c:v>2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7.2411700000000003</c:v>
+                  <c:v>2.44</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7.3273700000000002</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7.4135799999999996</c:v>
+                  <c:v>2.2599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7.4997800000000003</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.5859800000000002</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.6721899999999996</c:v>
+                  <c:v>1.99</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.7583900000000003</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7.8445999999999998</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.9307999999999996</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.0170100000000009</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.1032100000000007</c:v>
+                  <c:v>1.54</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.1894100000000005</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>8.27562</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>8.3618199999999998</c:v>
+                  <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>8.4480299999999993</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>8.5342300000000009</c:v>
+                  <c:v>1.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.6204400000000003</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.7066400000000002</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>8.7928499999999996</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>8.8790499999999994</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>8.9652499999999993</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>9.0514600000000005</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>9.1376600000000003</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>9.2238699999999998</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>9.3100699999999996</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>9.3962800000000009</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>9.4824800000000007</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>9.5686800000000005</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>9.65489</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>9.7410899999999998</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>9.8272999999999993</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>9.9135000000000009</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>9.9997100000000003</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>10.085900000000001</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,355 +484,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="225"/>
                 <c:pt idx="0">
-                  <c:v>2.58613E-2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1722600000000001E-2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7583899999999997E-2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.103445</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12930700000000001</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.155168</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.181029</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20688999999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23275199999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25861299999999998</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.284474</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.310336</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33619700000000002</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36205799999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.38791999999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.41378100000000001</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.43964199999999998</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.46550399999999997</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.491365</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.51722599999999996</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.54308800000000002</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.56894900000000004</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.59480999999999995</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.62067099999999997</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.64653300000000002</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.67239400000000005</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.69825499999999996</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.72411700000000001</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.74997800000000003</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.77583899999999995</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.801701</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.82756200000000002</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.85342300000000004</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.87928499999999998</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.90514600000000001</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.93100700000000003</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95686800000000005</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.98272999999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0085900000000001</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0344500000000001</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0603100000000001</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0861799999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.1120399999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.1378999999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.1637599999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1896199999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2154799999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2413400000000001</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.2672000000000001</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2930699999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.3189299999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.3447899999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.3706499999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.3965099999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.4223699999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.4482299999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.4740899999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.49996</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.52582</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.5516799999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.5775399999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.6033999999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.6292599999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6551199999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.68099</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.70685</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.73271</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.75857</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.78443</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.81029</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8361499999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.8620099999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.88788</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.91374</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.9396</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.96546</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.99132</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.0171800000000002</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.04304</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.0689000000000002</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.09477</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.1206299999999998</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.14649</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.1723499999999998</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.19821</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.2240700000000002</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.24993</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.2757999999999998</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.30166</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.3275199999999998</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.35338</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3792399999999998</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.4051</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.4309599999999998</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.45682</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.4826899999999998</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.5085500000000001</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.5344099999999998</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.56027</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.5861299999999998</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.61199</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.6378499999999998</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.66371</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.6895799999999999</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2.7154400000000001</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2.7412999999999998</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2.7671600000000001</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2.7930199999999998</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2.8188800000000001</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2.8447399999999998</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2.8706100000000001</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2.8964699999999999</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2.9223300000000001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2.9481899999999999</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2.9740500000000001</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2.9999099999999999</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>3.0257700000000001</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B117"/>
+      <selection activeCell="B112" sqref="A102:B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1939,938 +1843,810 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>8.62044E-2</v>
+        <v>9.91</v>
       </c>
       <c r="B1">
-        <v>2.58613E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>0.17240900000000001</v>
+        <v>9.82</v>
       </c>
       <c r="B2">
-        <v>5.1722600000000001E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>0.25861299999999998</v>
+        <v>9.73</v>
       </c>
       <c r="B3">
-        <v>7.7583899999999997E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>0.34481699999999998</v>
+        <v>9.64</v>
       </c>
       <c r="B4">
-        <v>0.103445</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>0.43102200000000002</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="B5">
-        <v>0.12930700000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>0.51722599999999996</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="B6">
-        <v>0.155168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>0.60343100000000005</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="B7">
-        <v>0.181029</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>0.689635</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="B8">
-        <v>0.20688999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>0.77583899999999995</v>
+        <v>9.19</v>
       </c>
       <c r="B9">
-        <v>0.23275199999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>0.86204400000000003</v>
+        <v>9.1</v>
       </c>
       <c r="B10">
-        <v>0.25861299999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>0.94824799999999998</v>
+        <v>9.01</v>
       </c>
       <c r="B11">
-        <v>0.284474</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1.0344500000000001</v>
+        <v>8.92</v>
       </c>
       <c r="B12">
-        <v>0.310336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>1.12066</v>
+        <v>8.83</v>
       </c>
       <c r="B13">
-        <v>0.33619700000000002</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1.20686</v>
+        <v>8.74</v>
       </c>
       <c r="B14">
-        <v>0.36205799999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1.2930699999999999</v>
+        <v>8.65</v>
       </c>
       <c r="B15">
-        <v>0.38791999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1.37927</v>
+        <v>8.56</v>
       </c>
       <c r="B16">
-        <v>0.41378100000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1.4654700000000001</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="B17">
-        <v>0.43964199999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1.5516799999999999</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="B18">
-        <v>0.46550399999999997</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>1.63788</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="B19">
-        <v>0.491365</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>1.7240899999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B20">
-        <v>0.51722599999999996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>1.81029</v>
+        <v>8.11</v>
       </c>
       <c r="B21">
-        <v>0.54308800000000002</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>1.8965000000000001</v>
+        <v>8.02</v>
       </c>
       <c r="B22">
-        <v>0.56894900000000004</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>1.9826999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="B23">
-        <v>0.59480999999999995</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>2.0689000000000002</v>
+        <v>7.84</v>
       </c>
       <c r="B24">
-        <v>0.62067099999999997</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>2.1551100000000001</v>
+        <v>7.75</v>
       </c>
       <c r="B25">
-        <v>0.64653300000000002</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>2.2413099999999999</v>
+        <v>7.66</v>
       </c>
       <c r="B26">
-        <v>0.67239400000000005</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>2.3275199999999998</v>
+        <v>7.57</v>
       </c>
       <c r="B27">
-        <v>0.69825499999999996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>2.4137200000000001</v>
+        <v>7.48</v>
       </c>
       <c r="B28">
-        <v>0.72411700000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>2.49993</v>
+        <v>7.39</v>
       </c>
       <c r="B29">
-        <v>0.74997800000000003</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>2.5861299999999998</v>
+        <v>7.3</v>
       </c>
       <c r="B30">
-        <v>0.77583899999999995</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>2.6723400000000002</v>
+        <v>7.21</v>
       </c>
       <c r="B31">
-        <v>0.801701</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>2.75854</v>
+        <v>7.12</v>
       </c>
       <c r="B32">
-        <v>0.82756200000000002</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>2.8447399999999998</v>
+        <v>7.03</v>
       </c>
       <c r="B33">
-        <v>0.85342300000000004</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>2.9309500000000002</v>
+        <v>6.94</v>
       </c>
       <c r="B34">
-        <v>0.87928499999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>3.01715</v>
+        <v>6.85</v>
       </c>
       <c r="B35">
-        <v>0.90514600000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>3.1033599999999999</v>
+        <v>6.76</v>
       </c>
       <c r="B36">
-        <v>0.93100700000000003</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>3.1895600000000002</v>
+        <v>6.67</v>
       </c>
       <c r="B37">
-        <v>0.95686800000000005</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>3.2757700000000001</v>
+        <v>6.58</v>
       </c>
       <c r="B38">
-        <v>0.98272999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>3.3619699999999999</v>
+        <v>6.49</v>
       </c>
       <c r="B39">
-        <v>1.0085900000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>3.4481700000000002</v>
+        <v>6.4</v>
       </c>
       <c r="B40">
-        <v>1.0344500000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>3.5343800000000001</v>
+        <v>6.31</v>
       </c>
       <c r="B41">
-        <v>1.0603100000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>3.6205799999999999</v>
+        <v>6.22</v>
       </c>
       <c r="B42">
-        <v>1.0861799999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>3.7067899999999998</v>
+        <v>6.13</v>
       </c>
       <c r="B43">
-        <v>1.1120399999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>3.7929900000000001</v>
+        <v>6.04</v>
       </c>
       <c r="B44">
-        <v>1.1378999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>3.8792</v>
+        <v>5.95</v>
       </c>
       <c r="B45">
-        <v>1.1637599999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>3.9653999999999998</v>
+        <v>5.86</v>
       </c>
       <c r="B46">
-        <v>1.1896199999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>4.0516100000000002</v>
+        <v>5.77</v>
       </c>
       <c r="B47">
-        <v>1.2154799999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>4.13781</v>
+        <v>5.68</v>
       </c>
       <c r="B48">
-        <v>1.2413400000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>4.2240099999999998</v>
+        <v>5.59</v>
       </c>
       <c r="B49">
-        <v>1.2672000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>4.3102200000000002</v>
+        <v>5.5</v>
       </c>
       <c r="B50">
-        <v>1.2930699999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>4.39642</v>
+        <v>5.41</v>
       </c>
       <c r="B51">
-        <v>1.3189299999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>4.4826300000000003</v>
+        <v>5.32</v>
       </c>
       <c r="B52">
-        <v>1.3447899999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>4.5688300000000002</v>
+        <v>5.23</v>
       </c>
       <c r="B53">
-        <v>1.3706499999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>4.6550399999999996</v>
+        <v>5.14</v>
       </c>
       <c r="B54">
-        <v>1.3965099999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>4.7412400000000003</v>
+        <v>5.05</v>
       </c>
       <c r="B55">
-        <v>1.4223699999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>4.8274400000000002</v>
+        <v>4.96</v>
       </c>
       <c r="B56">
-        <v>1.4482299999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>4.9136499999999996</v>
+        <v>4.87</v>
       </c>
       <c r="B57">
-        <v>1.4740899999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>4.9998500000000003</v>
+        <v>4.78</v>
       </c>
       <c r="B58">
-        <v>1.49996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>5.0860599999999998</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="B59">
-        <v>1.52582</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>5.1722599999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B60">
-        <v>1.5516799999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>5.25847</v>
+        <v>4.51</v>
       </c>
       <c r="B61">
-        <v>1.5775399999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>5.3446699999999998</v>
+        <v>4.42</v>
       </c>
       <c r="B62">
-        <v>1.6033999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>5.4308800000000002</v>
+        <v>4.33</v>
       </c>
       <c r="B63">
-        <v>1.6292599999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>5.51708</v>
+        <v>4.24</v>
       </c>
       <c r="B64">
-        <v>1.6551199999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>5.6032799999999998</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="B65">
-        <v>1.68099</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>5.6894900000000002</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="B66">
-        <v>1.70685</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>5.77569</v>
+        <v>3.97</v>
       </c>
       <c r="B67">
-        <v>1.73271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>5.8619000000000003</v>
+        <v>3.88</v>
       </c>
       <c r="B68">
-        <v>1.75857</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>5.9481000000000002</v>
+        <v>3.79</v>
       </c>
       <c r="B69">
-        <v>1.78443</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>6.0343099999999996</v>
+        <v>3.7</v>
       </c>
       <c r="B70">
-        <v>1.81029</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>6.1205100000000003</v>
+        <v>3.61</v>
       </c>
       <c r="B71">
-        <v>1.8361499999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>6.2067100000000002</v>
+        <v>3.52</v>
       </c>
       <c r="B72">
-        <v>1.8620099999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>6.2929199999999996</v>
+        <v>3.43</v>
       </c>
       <c r="B73">
-        <v>1.88788</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>6.3791200000000003</v>
+        <v>3.34</v>
       </c>
       <c r="B74">
-        <v>1.91374</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>6.4653299999999998</v>
+        <v>3.25</v>
       </c>
       <c r="B75">
-        <v>1.9396</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>6.5515299999999996</v>
+        <v>3.16</v>
       </c>
       <c r="B76">
-        <v>1.96546</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>6.63774</v>
+        <v>3.07</v>
       </c>
       <c r="B77">
-        <v>1.99132</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>6.7239399999999998</v>
+        <v>2.98</v>
       </c>
       <c r="B78">
-        <v>2.0171800000000002</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>6.8101399999999996</v>
+        <v>2.89</v>
       </c>
       <c r="B79">
-        <v>2.04304</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>6.89635</v>
+        <v>2.8</v>
       </c>
       <c r="B80">
-        <v>2.0689000000000002</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>6.9825499999999998</v>
+        <v>2.71</v>
       </c>
       <c r="B81">
-        <v>2.09477</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>7.0687600000000002</v>
+        <v>2.62</v>
       </c>
       <c r="B82">
-        <v>2.1206299999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>7.15496</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="B83">
-        <v>2.14649</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>7.2411700000000003</v>
+        <v>2.44</v>
       </c>
       <c r="B84">
-        <v>2.1723499999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>7.3273700000000002</v>
+        <v>2.35</v>
       </c>
       <c r="B85">
-        <v>2.19821</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>7.4135799999999996</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="B86">
-        <v>2.2240700000000002</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>7.4997800000000003</v>
+        <v>2.17</v>
       </c>
       <c r="B87">
-        <v>2.24993</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>7.5859800000000002</v>
+        <v>2.08</v>
       </c>
       <c r="B88">
-        <v>2.2757999999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>7.6721899999999996</v>
+        <v>1.99</v>
       </c>
       <c r="B89">
-        <v>2.30166</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>7.7583900000000003</v>
+        <v>1.9</v>
       </c>
       <c r="B90">
-        <v>2.3275199999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>7.8445999999999998</v>
+        <v>1.81</v>
       </c>
       <c r="B91">
-        <v>2.35338</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>7.9307999999999996</v>
+        <v>1.72</v>
       </c>
       <c r="B92">
-        <v>2.3792399999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>8.0170100000000009</v>
+        <v>1.63</v>
       </c>
       <c r="B93">
-        <v>2.4051</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>8.1032100000000007</v>
+        <v>1.54</v>
       </c>
       <c r="B94">
-        <v>2.4309599999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>8.1894100000000005</v>
+        <v>1.45</v>
       </c>
       <c r="B95">
-        <v>2.45682</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>8.27562</v>
+        <v>1.36</v>
       </c>
       <c r="B96">
-        <v>2.4826899999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>8.3618199999999998</v>
+        <v>1.27</v>
       </c>
       <c r="B97">
-        <v>2.5085500000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>8.4480299999999993</v>
+        <v>1.18</v>
       </c>
       <c r="B98">
-        <v>2.5344099999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>8.5342300000000009</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="B99">
-        <v>2.56027</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>8.6204400000000003</v>
+        <v>1</v>
       </c>
       <c r="B100">
-        <v>2.5861299999999998</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>8.7066400000000002</v>
+        <v>0.91</v>
       </c>
       <c r="B101">
-        <v>2.61199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102">
-        <v>8.7928499999999996</v>
-      </c>
-      <c r="B102">
-        <v>2.6378499999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A103">
-        <v>8.8790499999999994</v>
-      </c>
-      <c r="B103">
-        <v>2.66371</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A104">
-        <v>8.9652499999999993</v>
-      </c>
-      <c r="B104">
-        <v>2.6895799999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A105">
-        <v>9.0514600000000005</v>
-      </c>
-      <c r="B105">
-        <v>2.7154400000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A106">
-        <v>9.1376600000000003</v>
-      </c>
-      <c r="B106">
-        <v>2.7412999999999998</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A107">
-        <v>9.2238699999999998</v>
-      </c>
-      <c r="B107">
-        <v>2.7671600000000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A108">
-        <v>9.3100699999999996</v>
-      </c>
-      <c r="B108">
-        <v>2.7930199999999998</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A109">
-        <v>9.3962800000000009</v>
-      </c>
-      <c r="B109">
-        <v>2.8188800000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A110">
-        <v>9.4824800000000007</v>
-      </c>
-      <c r="B110">
-        <v>2.8447399999999998</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A111">
-        <v>9.5686800000000005</v>
-      </c>
-      <c r="B111">
-        <v>2.8706100000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A112">
-        <v>9.65489</v>
-      </c>
-      <c r="B112">
-        <v>2.8964699999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A113">
-        <v>9.7410899999999998</v>
-      </c>
-      <c r="B113">
-        <v>2.9223300000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A114">
-        <v>9.8272999999999993</v>
-      </c>
-      <c r="B114">
-        <v>2.9481899999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A115">
-        <v>9.9135000000000009</v>
-      </c>
-      <c r="B115">
-        <v>2.9740500000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A116">
-        <v>9.9997100000000003</v>
-      </c>
-      <c r="B116">
-        <v>2.9999099999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A117">
-        <v>10.085900000000001</v>
-      </c>
-      <c r="B117">
-        <v>3.0257700000000001</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
